--- a/medicine/Psychotrope/Bagnoli_di_Sopra_(vignoble)/Bagnoli_di_Sopra_(vignoble).xlsx
+++ b/medicine/Psychotrope/Bagnoli_di_Sopra_(vignoble)/Bagnoli_di_Sopra_(vignoble).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bagnoli di Sopra  est un vignoble italien de la région Vénétie doté d'une appellation DOC depuis le 16 août 1995. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. 
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Padoue dans les communes de Agna, Arre, Bagnoli di Sopra, Battaglia Terme, Bovolenta, Candiana, Due Carrare, Cartura, Conselve, Monselice, Pernumia, San Pietro Viminario, Terrassa Padovana et Tribano. 
 Le vignoble Colli Euganei est à quelques kilomètres.
@@ -543,7 +557,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cépages les plus importants sont : 
 Cabernet franc,
@@ -582,7 +598,9 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous l’appellation, les vins suivants sont autorisés :
 Bagnoli di Sopra Cabernet
